--- a/OBPIT/Задание 2.xlsx
+++ b/OBPIT/Задание 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -374,26 +374,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="160" formatCode="0.0"/>
-    <numFmt numFmtId="161" formatCode="0.0000"/>
+    <numFmt numFmtId="161" formatCode="0.000"/>
+    <numFmt numFmtId="162" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1117,7 +1118,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1215,6 +1216,9 @@
     <xf fontId="1" fillId="0" borderId="29" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="20" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="20" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,6 +1228,9 @@
     <xf fontId="1" fillId="0" borderId="31" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="21" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="21" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,6 +1250,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="36" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="15" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,7 +1399,7 @@
     <xf fontId="0" fillId="0" borderId="51" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="21" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="21" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="52" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1399,9 +1409,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="53" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2086,96 +2093,96 @@
       <c r="G6" s="33">
         <v>2</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="34">
         <v>3</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <v>4</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="34">
         <v>5</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="34">
         <v>6</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="34">
         <v>7</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="F7" s="35">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="37">
         <f t="shared" ref="G7:G16" si="0">1/((1+$B$32/100)^F7)</f>
         <v>0.82348215357711585</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="38">
         <v>0</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="38">
         <v>0</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="38">
         <v>0</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="38">
         <f t="shared" ref="K7:K9" si="1">G7*H7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="38">
         <f t="shared" ref="L7:L16" si="2">G7*I7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="39">
         <f t="shared" ref="M7:M16" si="3">G7*J7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="F8" s="35">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="F8" s="36">
         <v>2</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="37">
         <f t="shared" si="0"/>
         <v>0.67812285726000465</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="38">
         <f>2500+10*$B$1</f>
         <v>2540</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="38">
         <v>0</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="38">
         <v>0</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="38">
         <f t="shared" si="1"/>
         <v>1722.4320574404119</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
@@ -2186,33 +2193,33 @@
         <v>16</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="35">
+      <c r="F9" s="36">
         <v>3</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="37">
         <f t="shared" si="0"/>
         <v>0.55842207088633566</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="38">
         <f>6717+10*$B$1</f>
         <v>6757</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="38">
         <f>4798+$B$1</f>
         <v>4802</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="38">
         <v>0</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="38">
         <f t="shared" si="1"/>
         <v>3773.2579329789701</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="38">
         <f t="shared" si="2"/>
         <v>2681.5427843961838</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2221,434 +2228,434 @@
       <c r="A10" s="32">
         <v>1</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <f>2500+10*$B$1</f>
         <v>2540</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="34">
         <v>0</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="35">
         <v>0</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="36">
         <v>4</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="37">
         <f t="shared" si="0"/>
         <v>0.45985060953847257</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="38">
         <f>23659+10*$B$1</f>
         <v>23699</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="38">
         <f>16899+$B$1</f>
         <v>16903</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="38">
         <f>13519-5*$B$1</f>
         <v>13499</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="38">
         <f t="shared" ref="K10:K16" si="4">G10*H10</f>
         <v>10897.999595452262</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="38">
         <f t="shared" si="2"/>
         <v>7772.8548530288017</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="39">
         <f t="shared" si="3"/>
         <v>6207.5233781598408</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="35">
+      <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="38">
         <f>6717+10*$B$1</f>
         <v>6757</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="38">
         <f>4798+$B$1</f>
         <v>4802</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="39">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="36">
         <v>5</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
         <v>0.37867877026649083</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="38">
         <f>34626+15*$B$1</f>
         <v>34686</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="38">
         <f>24733+5*$B$1</f>
         <v>24753</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="38">
         <f>19786-10*$B$1</f>
         <v>19746</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="38">
         <f t="shared" si="4"/>
         <v>13134.8518254635</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="38">
         <f t="shared" si="2"/>
         <v>9373.4356004064466</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="39">
         <f t="shared" si="3"/>
         <v>7477.3909976821278</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="35">
+      <c r="A12" s="36">
         <v>3</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="38">
         <f>23659+10*$B$1</f>
         <v>23699</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="38">
         <f>16899+$B$1</f>
         <v>16903</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="39">
         <f>13519-5*$B$1</f>
         <v>13499</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="36">
         <v>6</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="37">
         <f t="shared" si="0"/>
         <v>0.31183520925298375</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="38">
         <f>43145+15*$B$1</f>
         <v>43205</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="38">
         <f>30818+5*$B$1</f>
         <v>30838</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="38">
         <f>24654-10*$B$1</f>
         <v>24614</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="38">
         <f t="shared" si="4"/>
         <v>13472.840215775163</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="38">
         <f t="shared" si="2"/>
         <v>9616.374182943513</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="39">
         <f t="shared" si="3"/>
         <v>7675.511840552942</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="35">
+      <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="38">
         <f>34626+15*$B$1</f>
         <v>34686</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="38">
         <f>24733+5*$B$1</f>
         <v>24753</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="39">
         <f>19786-10*$B$1</f>
         <v>19746</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="36">
         <v>7</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="37">
         <f t="shared" si="0"/>
         <v>0.2567907296768176</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="38">
         <f>60183+15*$B$1</f>
         <v>60243</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="38">
         <f>42988+5*$B$1</f>
         <v>43008</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="38">
         <f>34390-10*$B$1</f>
         <v>34350</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="38">
         <f t="shared" si="4"/>
         <v>15469.843927920523</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="38">
         <f t="shared" si="2"/>
         <v>11044.055701940571</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="39">
         <f t="shared" si="3"/>
         <v>8820.7615643986846</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="38">
         <f>43145+15*$B$1</f>
         <v>43205</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="38">
         <f>30818+5*$B$1</f>
         <v>30838</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="39">
         <f>24654-10*$B$1</f>
         <v>24614</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="36">
         <v>8</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="37">
         <f t="shared" si="0"/>
         <v>0.21146258309290478</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="38">
         <f t="shared" ref="H14:H16" si="5">60183+20*$B$1</f>
         <v>60263</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="38">
         <f t="shared" ref="I14:I16" si="6">42988+10*$B$1</f>
         <v>43028</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="38">
         <f t="shared" ref="J14:J16" si="7">34390-15*$B$1</f>
         <v>34330</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="38">
         <f t="shared" si="4"/>
         <v>12743.369644927721</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="38">
         <f t="shared" si="2"/>
         <v>9098.8120253215075</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="39">
         <f t="shared" si="3"/>
         <v>7259.5104775794207</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35">
+      <c r="A15" s="36">
         <v>6</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="38">
         <f>60183+15*$B$1</f>
         <v>60243</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="38">
         <f>42988+5*$B$1</f>
         <v>43008</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="39">
         <f>34390-10*$B$1</f>
         <v>34350</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="36">
         <v>9</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="37">
         <f t="shared" si="0"/>
         <v>0.17413566332632505</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="38">
         <f t="shared" si="5"/>
         <v>60263</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="38">
         <f t="shared" si="6"/>
         <v>43028</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="38">
         <f t="shared" si="7"/>
         <v>34330</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="38">
         <f t="shared" si="4"/>
         <v>10493.937479034326</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="38">
         <f t="shared" si="2"/>
         <v>7492.7093216051144</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="39">
         <f t="shared" si="3"/>
         <v>5978.0773219927387</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="35">
+      <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="38">
         <f t="shared" ref="B16:B18" si="8">60183+20*$B$1</f>
         <v>60263</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="38">
         <f t="shared" ref="C16:C18" si="9">42988+10*$B$1</f>
         <v>43028</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="39">
         <f t="shared" ref="D16:D18" si="10">34390-15*$B$1</f>
         <v>34330</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="44">
         <v>10</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="45">
         <f t="shared" si="0"/>
         <v>0.14339761105054175</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="46">
         <f t="shared" si="5"/>
         <v>60263</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="46">
         <f t="shared" si="6"/>
         <v>43028</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="46">
         <f t="shared" si="7"/>
         <v>34330</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="46">
         <f t="shared" si="4"/>
         <v>8641.5702347387978</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="46">
         <f t="shared" si="2"/>
         <v>6170.11240828271</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="47">
         <f t="shared" si="3"/>
         <v>4922.8399873650978</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="35">
+      <c r="A17" s="36">
         <v>8</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="38">
         <f t="shared" si="8"/>
         <v>60263</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="38">
         <f t="shared" si="9"/>
         <v>43028</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="39">
         <f t="shared" si="10"/>
         <v>34330</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48">
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51">
         <f>SUM(K7:K16)</f>
         <v>90350.10291373168</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="52">
         <f t="shared" ref="L17:M17" si="11">SUM(L7:L16)</f>
         <v>63249.896877924846</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="53">
         <f t="shared" si="11"/>
         <v>48341.615567730849</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="51">
+      <c r="A18" s="54">
         <v>9</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="55">
         <f t="shared" si="8"/>
         <v>60263</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="55">
         <f t="shared" si="9"/>
         <v>43028</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="56">
         <f t="shared" si="10"/>
         <v>34330</v>
       </c>
     </row>
     <row r="20" ht="19.800000000000001" customHeight="1">
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" ht="41.399999999999999" customHeight="1">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="59">
         <f>K17</f>
         <v>90350.10291373168</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="60" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" ht="41.399999999999999" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="61">
         <v>10.5</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="63">
         <f>63274</f>
         <v>63274</v>
       </c>
@@ -2657,19 +2664,19 @@
       </c>
     </row>
     <row r="23" ht="41.399999999999999" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="64">
         <v>3.0699999999999998</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="63">
         <f>48249</f>
         <v>48249</v>
       </c>
@@ -2678,19 +2685,19 @@
       </c>
     </row>
     <row r="24" ht="28.800000000000001" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="64">
         <v>4.3700000000000001</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="63">
         <f>(G21+4*G22+G23)/6</f>
         <v>65282.517152288616</v>
       </c>
@@ -2699,64 +2706,64 @@
       </c>
     </row>
     <row r="25" ht="28.800000000000001" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="64">
         <v>1.8100000000000001</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="63">
         <f t="shared" ref="G25:G26" si="12">D3</f>
         <v>8.0000000000000002e-002</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" ht="28.800000000000001" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="61">
+      <c r="B26" s="64">
         <v>3</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="63">
         <f t="shared" si="12"/>
         <v>1.3</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" ht="28.800000000000001" customHeight="1">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="64">
         <f>B22+B23*B24+B25+B26</f>
         <v>28.725899999999999</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="68">
         <f>G24*G25*G26</f>
         <v>6789.3817838380164</v>
       </c>
@@ -2765,10 +2772,10 @@
       </c>
     </row>
     <row r="28" ht="36" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="61">
+      <c r="B28" s="64">
         <v>0.40000000000000002</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -2776,63 +2783,63 @@
       </c>
     </row>
     <row r="29" ht="36" customHeight="1">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="61">
+      <c r="B29" s="64">
         <v>0.59999999999999998</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
     </row>
     <row r="30" ht="36" customHeight="1">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B30" s="64">
         <v>15</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
     </row>
     <row r="31" ht="14.4" customHeight="1">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="64">
         <v>0.29999999999999999</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
     </row>
     <row r="32" ht="36" customHeight="1">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="67" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="30">
         <f>B27*B29+B28*B30*(1-B31)</f>
         <v>21.43554</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2850,7 +2857,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2878,29 +2885,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50">
+      <c r="E1" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -2908,7 +2915,7 @@
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="67" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="31">
@@ -2917,22 +2924,22 @@
     </row>
     <row r="5" ht="14.4" customHeight="1"/>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="80" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="30" t="s">
@@ -2943,7 +2950,7 @@
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="58" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -2955,12 +2962,12 @@
       <c r="D8" s="23">
         <v>2300</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="60">
         <v>3500</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="62" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="24" t="str">
@@ -2978,7 +2985,7 @@
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="62" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="24" t="str">
@@ -2996,7 +3003,7 @@
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="62" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="24" t="str">
@@ -3014,7 +3021,7 @@
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="24" t="str">
@@ -3032,7 +3039,7 @@
       </c>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="67" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="30">
@@ -3051,13 +3058,13 @@
     </row>
     <row r="14" ht="14.4" customHeight="1"/>
     <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="81" t="s">
         <v>89</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -3067,9 +3074,9 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" ht="14.4" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="79"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="30" t="s">
         <v>68</v>
       </c>
@@ -3081,360 +3088,360 @@
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="1">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="84">
         <f>'2.1'!D3</f>
         <v>8.0000000000000002e-002</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="84">
         <v>1.4999999999999999e-002</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="84">
         <v>3.5000000000000003e-002</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="85">
         <v>8.9999999999999993e-003</v>
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="64">
         <f>$C$17/D17</f>
         <v>5.3333333333333339</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="64">
         <f>$C$17/E17</f>
         <v>2.2857142857142856</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="87">
         <f>$C$17/F17</f>
         <v>8.8888888888888893</v>
       </c>
-      <c r="H18" s="85" t="str">
+      <c r="H18" s="88" t="str">
         <f>_xlfn.CONCAT("Таким образом, стоимость оцениваемого объекта интеллектуальной собственности, рассчитанная на основе сравнительного метода, составит ",ROUND(C30,2)," тыс. руб.")</f>
         <v xml:space="preserve">Таким образом, стоимость оцениваемого объекта интеллектуальной собственности, рассчитанная на основе сравнительного метода, составит 9487.98 тыс. руб.</v>
       </c>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
     </row>
     <row r="19" ht="14.4" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="64">
         <f>'2.1'!D4</f>
         <v>1.3</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="64">
         <v>1</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="64">
         <v>0.59999999999999998</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="87">
         <v>0.69999999999999996</v>
       </c>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="64">
         <f>$C$19/D19</f>
         <v>1.3</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="64">
         <f>$C$19/E19</f>
         <v>2.166666666666667</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="87">
         <f>$C$19/F19</f>
         <v>1.8571428571428574</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="93"/>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="64">
         <v>3.3500000000000001</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="64">
         <v>0.94999999999999996</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="64">
         <v>1.8100000000000001</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="87">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
     </row>
     <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="64">
         <f>$C$21/D21</f>
         <v>3.5263157894736845</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="64">
         <f>$C$21/E21</f>
         <v>1.850828729281768</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="87">
         <f>$C$21/F21</f>
         <v>0.83333333333333348</v>
       </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="91">
+      <c r="C23" s="94">
         <v>0.14749999999999999</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="64">
         <v>0.40000000000000002</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="64">
         <v>0.29999999999999999</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="87">
         <v>0.5</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="94"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
     </row>
     <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="64">
         <f>$C$23/D23</f>
         <v>0.36874999999999997</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="64">
         <f>$C$23/E23</f>
         <v>0.49166666666666664</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="87">
         <f>$C$23/F23</f>
         <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="64">
         <f>$B$13/C13</f>
         <v>0.75</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="64">
         <f>$B$13/D13</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="F25" s="84">
+      <c r="F25" s="87">
         <f>$B$13/E13</f>
         <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="64">
         <v>0.78349999999999997</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="64">
         <v>0.57840000000000003</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="64">
         <v>0.78349999999999997</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="87">
         <v>0.64080000000000004</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="64">
         <f>$C$26/D26</f>
         <v>1.3545988934993083</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="64">
         <f>$C$26/E26</f>
         <v>1</v>
       </c>
-      <c r="F27" s="84">
+      <c r="F27" s="87">
         <f>$C$26/F26</f>
         <v>1.2226903870162296</v>
       </c>
-      <c r="L27" s="95"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="64">
         <f>D18*D20*D22*D24*D25*D27</f>
         <v>9.1594055971099948</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="64">
         <f t="shared" ref="E28:F28" si="13">E18*E20*E22*E24*E25*E27</f>
         <v>3.8628180553989546</v>
       </c>
-      <c r="F28" s="84">
+      <c r="F28" s="87">
         <f t="shared" si="13"/>
         <v>2.9771540534649148</v>
       </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
     </row>
     <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="64">
         <f>D28*C8</f>
         <v>9159.4055971099951</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="64">
         <f>E28*D8</f>
         <v>8884.4815274175962</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="87">
         <f>F28*E8</f>
         <v>10420.039187127202</v>
       </c>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
     </row>
     <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="99">
+      <c r="C30" s="101">
         <f>(D29+E29+F29)/3</f>
         <v>9487.9754372182651</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="99" t="s">
+      <c r="E30" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="100" t="s">
+      <c r="F30" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3449,7 +3456,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>